--- a/EFS/cap08-BasesDeDatos/BD1_companies_150318.xlsx
+++ b/EFS/cap08-BasesDeDatos/BD1_companies_150318.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\EFS\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\EFS\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Company_Number</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>Listado (1,7,14,30,45,60,90,120,180,270,360) + opción Calendario (que rellena un número exacto de días &amp; genera Tarea en BD7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit limit </t>
+  </si>
+  <si>
+    <t>Credit used</t>
+  </si>
+  <si>
+    <t>Pending payments</t>
+  </si>
+  <si>
+    <t>AUTO: Pending - Credit limit</t>
+  </si>
+  <si>
+    <t>Manual (Financiero - Iratxe López)</t>
   </si>
 </sst>
 </file>
@@ -599,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -870,8 +885,30 @@
         <v>53</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
